--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/7.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/7.xlsx
@@ -1170,10 +1170,10 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>123</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>264.67</v>
       </c>
     </row>
